--- a/RUDN/Importance/Varible_muatal_class_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Northern America.xlsx
@@ -14,80 +14,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
   <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
@@ -97,1048 +97,1045 @@
     <t>Urban population (% of total)</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Region_code</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1749,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5772640535117864</v>
+        <v>0.568717044964778</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1760,7 +1757,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.568717044964778</v>
+        <v>0.5687170449647778</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1768,7 +1765,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5477368143691628</v>
+        <v>0.5391898058221543</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1776,7 +1773,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5242325408648891</v>
+        <v>0.539189805822154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1784,7 +1781,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5220957887281372</v>
+        <v>0.5242325408648891</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1792,7 +1789,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5179010028206505</v>
+        <v>0.5220957887281372</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1800,7 +1797,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5178222844546327</v>
+        <v>0.5220957887281372</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1808,7 +1805,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.5178222844546327</v>
+        <v>0.522095788728137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1816,7 +1813,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5135487801811285</v>
+        <v>0.5111678278001763</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1824,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5135487801811285</v>
+        <v>0.5084043266573077</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1832,7 +1829,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5042271900903077</v>
+        <v>0.5077579186210361</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1840,7 +1837,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4964547630871115</v>
+        <v>0.5071385237708721</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1848,7 +1845,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4964547630871115</v>
+        <v>0.4880196796520282</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1856,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4943180109503593</v>
+        <v>0.4879077545401027</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1864,7 +1861,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4130413104428898</v>
+        <v>0.4224430198445994</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1872,7 +1869,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4055086721410204</v>
+        <v>0.3946652420668211</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1880,7 +1877,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.3707584152753791</v>
+        <v>0.3882549856565647</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1888,7 +1885,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3686347198824529</v>
+        <v>0.3846282704913879</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1896,7 +1893,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.3632995991627168</v>
+        <v>0.3707584152753791</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1904,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.349614659534307</v>
+        <v>0.367873159505508</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1912,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.343390804253922</v>
+        <v>0.349614659534307</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1920,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.3431777694255025</v>
+        <v>0.3449984558615735</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1928,7 +1925,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.3403072069395552</v>
+        <v>0.3159173517804696</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1936,7 +1933,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.3234884843516022</v>
+        <v>0.3147583256214432</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1944,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.3130788797112287</v>
+        <v>0.3140053748684926</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1952,7 +1949,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.3116632725263901</v>
+        <v>0.3132514991146167</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1960,7 +1957,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.3095681454312631</v>
+        <v>0.3130788797112287</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1968,7 +1965,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.3052853911485089</v>
+        <v>0.3116632725263901</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1976,7 +1973,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.3032698141329317</v>
+        <v>0.3111350969982147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1984,7 +1981,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.3007760116391291</v>
+        <v>0.307532218395336</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1992,7 +1989,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.2974783833415011</v>
+        <v>0.3033216141847317</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2000,7 +1997,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.2932659291290469</v>
+        <v>0.3012755121386299</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2008,7 +2005,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.2790335802813133</v>
+        <v>0.2955772218249553</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2016,7 +2013,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.2746687855319032</v>
+        <v>0.2918543777174951</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2024,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.274648435511553</v>
+        <v>0.2892088750719928</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2032,7 +2029,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.2740071252548582</v>
+        <v>0.2878130486761661</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2040,7 +2037,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.2716967575598752</v>
+        <v>0.2858918217549393</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2048,7 +2045,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.2715247073878253</v>
+        <v>0.2808450167081344</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2056,7 +2053,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.2702023118346601</v>
+        <v>0.2770802629433806</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2064,7 +2061,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.2642292250923426</v>
+        <v>0.2763883622514798</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2072,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.2603124865602195</v>
+        <v>0.275411561274679</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2080,7 +2077,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.2597503706134883</v>
+        <v>0.272622683485801</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2088,7 +2085,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.2597013455644632</v>
+        <v>0.2720232828864007</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2096,7 +2093,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.2588065850543182</v>
+        <v>0.2718373577004751</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2104,7 +2101,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.258592269455387</v>
+        <v>0.2703138811769987</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2112,7 +2109,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.2574110432741608</v>
+        <v>0.2695470554101731</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2120,7 +2117,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.2566691925323104</v>
+        <v>0.2686350044981221</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2128,7 +2125,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2566275674906857</v>
+        <v>0.2641450500081677</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2136,7 +2133,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.2536166894798071</v>
+        <v>0.2631784240415416</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2144,7 +2141,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.253331789194907</v>
+        <v>0.2605356963988141</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2152,7 +2149,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.2524502686003598</v>
+        <v>0.2603124865602195</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2160,7 +2157,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.2518665877297055</v>
+        <v>0.2591500450131627</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2168,7 +2165,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.2513680122311299</v>
+        <v>0.2569318927950106</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2176,7 +2173,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.2511460831630472</v>
+        <v>0.2561595170226345</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2184,7 +2181,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.2508389117020293</v>
+        <v>0.2535861644492821</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2192,7 +2189,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.2498824607455785</v>
+        <v>0.2529349637980816</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2200,7 +2197,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.247517233380351</v>
+        <v>0.2525270383901561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2208,7 +2205,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.2467689076320254</v>
+        <v>0.2525076133707309</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2216,7 +2213,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.2464636573267751</v>
+        <v>0.2524502686003598</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2224,7 +2221,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.2463008571639747</v>
+        <v>0.2520071878703056</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2232,7 +2229,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.244426805289923</v>
+        <v>0.2512052120683297</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2240,7 +2237,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.2428099036730214</v>
+        <v>0.2511432370063547</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2248,7 +2245,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.2414668023299198</v>
+        <v>0.2498621107252281</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2256,7 +2253,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.2400404509035685</v>
+        <v>0.248782350030083</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2264,7 +2261,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.2359121717752892</v>
+        <v>0.2461278819909996</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2272,7 +2269,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.2340813103290433</v>
+        <v>0.2457495566126744</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2280,7 +2277,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.2334470443101622</v>
+        <v>0.2454258062889239</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2288,7 +2285,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.232462843325961</v>
+        <v>0.2447440806071983</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2296,7 +2293,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.2322186430817608</v>
+        <v>0.2447339055970232</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2304,7 +2301,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.2321067179698357</v>
+        <v>0.244621055484173</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2312,7 +2309,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.2316081424712602</v>
+        <v>0.2419561278192455</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2320,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.2303260911892087</v>
+        <v>0.2418405027036203</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2328,7 +2325,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.2301327659958838</v>
+        <v>0.2412411021042198</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2336,7 +2333,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.2287896646527823</v>
+        <v>0.2406925765556942</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2344,7 +2341,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.2277212885844064</v>
+        <v>0.2400635759266936</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2352,7 +2349,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.2263976122607299</v>
+        <v>0.2392699251330426</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2360,7 +2357,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.2259082867714044</v>
+        <v>0.238364349227467</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2368,7 +2365,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.225359761222879</v>
+        <v>0.2364921473552652</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2376,7 +2373,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.2223276081907257</v>
+        <v>0.2358511217142394</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2384,7 +2381,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.2203444062075237</v>
+        <v>0.2350574709205886</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2392,7 +2389,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.2201797560428738</v>
+        <v>0.2343655702286878</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2400,7 +2397,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.2190623549254727</v>
+        <v>0.2334294692925869</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2408,7 +2405,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.2188181546812724</v>
+        <v>0.2317690926322102</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2416,7 +2413,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.2146149504780681</v>
+        <v>0.2311807920439095</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2424,7 +2421,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.2145141253772431</v>
+        <v>0.2311400920032098</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2432,7 +2429,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.2141478250109425</v>
+        <v>0.2307432666063842</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2440,7 +2437,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.2141172999804177</v>
+        <v>0.2278739137370314</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2448,7 +2445,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.2137611746242924</v>
+        <v>0.2260831119462301</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2456,7 +2453,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.2127640236271413</v>
+        <v>0.2255947114578289</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2464,7 +2461,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.2114107472738649</v>
+        <v>0.2254013862645043</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2472,7 +2469,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.2097716456347631</v>
+        <v>0.2245263353894531</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2480,7 +2477,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.209374820237938</v>
+        <v>0.2216671575302751</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2488,7 +2485,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.2072491681122859</v>
+        <v>0.2215959324590502</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2496,7 +2493,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.2039117647748825</v>
+        <v>0.2203499562130737</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2504,7 +2501,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.2035343643974823</v>
+        <v>0.2198967057598236</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2512,7 +2509,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.203341964205082</v>
+        <v>0.2198763557394734</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2520,7 +2517,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.2030687713830683</v>
+        <v>0.2198661807292981</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2528,7 +2525,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.2029349637980813</v>
+        <v>0.2192455051086228</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2536,7 +2533,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.2028942637573816</v>
+        <v>0.2173529532160707</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2544,7 +2541,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.2011025369656547</v>
+        <v>0.2167822276453455</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2552,7 +2549,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.200564186427304</v>
+        <v>0.2159793268424446</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2560,7 +2557,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.200513311376429</v>
+        <v>0.2159386268017445</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2568,7 +2565,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.2000147358778537</v>
+        <v>0.2158572267203445</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2576,7 +2573,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1984579593210769</v>
+        <v>0.2157527016158192</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2584,7 +2581,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1979991588622765</v>
+        <v>0.2151856760487936</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2592,7 +2589,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1977133335764512</v>
+        <v>0.2150432259063435</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2600,7 +2597,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1976439585070762</v>
+        <v>0.2138730997362173</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2608,7 +2605,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1972369581000761</v>
+        <v>0.2126520985152163</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2616,7 +2613,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1964127822758999</v>
+        <v>0.2110851469482646</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2624,7 +2621,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1943370802001978</v>
+        <v>0.2102406211037386</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2632,7 +2629,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.194276030139148</v>
+        <v>0.209536695399813</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2640,7 +2637,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.193573954437072</v>
+        <v>0.2094571453202629</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2648,7 +2645,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1923733032364208</v>
+        <v>0.2079105437736615</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2656,7 +2653,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1907739766370944</v>
+        <v>0.207534068397186</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2664,7 +2661,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1906435515066689</v>
+        <v>0.2055601164232339</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2672,7 +2669,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1904197012828188</v>
+        <v>0.203372489235607</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2680,7 +2677,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1896565755196931</v>
+        <v>0.2030687713830683</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2688,7 +2685,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1892394001025177</v>
+        <v>0.2025177883809059</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2696,7 +2693,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1889850248481424</v>
+        <v>0.2024363882995059</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2704,7 +2701,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.188455924319042</v>
+        <v>0.2022735881367057</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2712,7 +2709,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1874689483320662</v>
+        <v>0.2021209629840808</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2720,7 +2717,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1868787977419153</v>
+        <v>0.199675260538378</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2728,7 +2725,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.184345220208338</v>
+        <v>0.198661459524577</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2736,7 +2733,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.1830021188652367</v>
+        <v>0.1982341090972266</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2744,7 +2741,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1825035433666611</v>
+        <v>0.1980713089344266</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2752,7 +2749,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1823509182140357</v>
+        <v>0.1980611339242517</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2760,7 +2757,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1818625177256354</v>
+        <v>0.1972369581000761</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2768,7 +2765,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.1810790419421595</v>
+        <v>0.1958836817467995</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2776,7 +2773,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1797155905787082</v>
+        <v>0.1958124566755743</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2784,7 +2781,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1793902314714966</v>
+        <v>0.1955164563795739</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2792,7 +2789,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1792466151097332</v>
+        <v>0.1948236306867488</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2800,7 +2797,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.1791559650190826</v>
+        <v>0.1926276784907963</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2808,7 +2805,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.178708264571382</v>
+        <v>0.1921087529718706</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2816,7 +2813,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.1779654888286064</v>
+        <v>0.1920884029515206</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2824,7 +2821,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.1775566384197562</v>
+        <v>0.1918950777581954</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2832,7 +2829,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1774465633096809</v>
+        <v>0.1906232014863192</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2840,7 +2837,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1773929132560308</v>
+        <v>0.1901246259877438</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2848,7 +2845,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.1770497379128555</v>
+        <v>0.1901144509775685</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2856,7 +2853,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.1768055376686555</v>
+        <v>0.1895548254179431</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2864,7 +2861,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1767139625770802</v>
+        <v>0.1878953737584914</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2872,7 +2869,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1761441620072797</v>
+        <v>0.187437498300616</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2880,7 +2877,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1761228869860048</v>
+        <v>0.1867872226503404</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2888,7 +2885,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1753098111729288</v>
+        <v>0.1866752975384152</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2896,7 +2893,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1751266609897788</v>
+        <v>0.186390397253515</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2904,7 +2901,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1749943858575036</v>
+        <v>0.1863496972128149</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2912,7 +2909,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1748112356743532</v>
+        <v>0.1862479471110647</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2920,7 +2917,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1742719601350777</v>
+        <v>0.1854135962767141</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2928,7 +2925,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1728779837411014</v>
+        <v>0.1853007461638638</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2936,7 +2933,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1720538079169256</v>
+        <v>0.1852803961435139</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2944,7 +2941,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1713822572453747</v>
+        <v>0.1850879959511138</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2952,7 +2949,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1709956068587244</v>
+        <v>0.1838059446690623</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2960,7 +2957,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1705275563906741</v>
+        <v>0.1829706688337867</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2968,7 +2965,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.170497031360149</v>
+        <v>0.1823102181733358</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2976,7 +2973,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1704766813397989</v>
+        <v>0.1813602422233602</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2984,7 +2981,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1698967057598235</v>
+        <v>0.180509241372359</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2992,7 +2989,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1698865307496484</v>
+        <v>0.180478716341834</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3000,7 +2997,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1695794304425482</v>
+        <v>0.179508390371508</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3008,7 +3005,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.1692149800780978</v>
+        <v>0.1791050899682078</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3016,7 +3013,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1689707798338975</v>
+        <v>0.178443714306832</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3024,7 +3021,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1677497786128963</v>
+        <v>0.178351214214332</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3032,7 +3029,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1671772030403214</v>
+        <v>0.1783419642050819</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3040,7 +3037,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1667424526055703</v>
+        <v>0.1780570639201817</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3048,7 +3045,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1667119275750453</v>
+        <v>0.1768665877297053</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3056,7 +3053,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1663761522392697</v>
+        <v>0.1768665877297053</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3064,7 +3061,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1662235270866448</v>
+        <v>0.1759702618333796</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3072,7 +3069,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1643818502449681</v>
+        <v>0.1756964615595793</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3080,7 +3077,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.164310625173743</v>
+        <v>0.1751257359888536</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3088,7 +3085,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.1635983744614922</v>
+        <v>0.1748214106845285</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3096,7 +3093,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.1630572489203665</v>
+        <v>0.1736614595245771</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3104,7 +3101,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1630183988815164</v>
+        <v>0.1726643085274262</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3112,7 +3109,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1623163231794407</v>
+        <v>0.1725616334247511</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3120,7 +3117,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1608409467040643</v>
+        <v>0.171504357367475</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3128,7 +3125,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1600269458900634</v>
+        <v>0.1712777321408503</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3136,7 +3133,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.159599595462713</v>
+        <v>0.1701307309938485</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3144,7 +3141,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1591722450353628</v>
+        <v>0.1700595059226235</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3152,7 +3149,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.1590677199308375</v>
+        <v>0.1699374058005234</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3160,7 +3157,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.1581750940382118</v>
+        <v>0.1696830305461483</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3168,7 +3165,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1576765185396363</v>
+        <v>0.1692963801594978</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3176,7 +3173,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.1571168929800106</v>
+        <v>0.1687876296507473</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3184,7 +3181,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1566386675017852</v>
+        <v>0.1686044794675972</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3192,7 +3189,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1566297732621218</v>
+        <v>0.1681974790605967</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3200,7 +3197,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1547155905787081</v>
+        <v>0.1679532788163964</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3208,7 +3205,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1541966650597828</v>
+        <v>0.1662235270866455</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3216,7 +3213,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1539219397850575</v>
+        <v>0.1648702507333686</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3224,7 +3221,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.1528739137370314</v>
+        <v>0.1641478250109425</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3232,7 +3229,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1523753382384558</v>
+        <v>0.1641172999804177</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3240,7 +3237,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.1522328880960058</v>
+        <v>0.1635678494309669</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3248,7 +3245,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.1519683378314556</v>
+        <v>0.163547499410617</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3256,7 +3253,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.1515308123939303</v>
+        <v>0.1635067993699171</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3264,7 +3261,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.151468837331955</v>
+        <v>0.1630183988815164</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3272,7 +3269,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1510220618851794</v>
+        <v>0.1628047236678414</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3280,7 +3277,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1508897867529044</v>
+        <v>0.1627334985966162</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3288,7 +3285,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1502691111322287</v>
+        <v>0.1621229979861154</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3296,7 +3293,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1501673610304788</v>
+        <v>0.1620924729555906</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3304,7 +3301,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.1500249108880285</v>
+        <v>0.1614107472738648</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3312,7 +3309,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.1499231607862783</v>
+        <v>0.1613089971721149</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3320,7 +3317,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.1496586105217281</v>
+        <v>0.1612784721415896</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3328,7 +3325,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1495263353894529</v>
+        <v>0.1600879959511137</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3336,7 +3333,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1494551103182287</v>
+        <v>0.1592943451574629</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3344,7 +3341,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1484061592692774</v>
+        <v>0.1581242189873366</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3352,7 +3349,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1479695588326764</v>
+        <v>0.1571067179698356</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3360,7 +3357,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1477151835783013</v>
+        <v>0.1568625177256353</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3368,7 +3365,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.147603258466376</v>
+        <v>0.1568218176849354</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3376,7 +3373,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1467078575709753</v>
+        <v>0.15636394222706</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3384,7 +3381,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1463517322148498</v>
+        <v>0.1560790419421596</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3392,7 +3389,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1462906821537997</v>
+        <v>0.1555776914408091</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3400,7 +3397,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1460668319299494</v>
+        <v>0.1548478657109833</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3408,7 +3405,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.145588606451724</v>
+        <v>0.1543289401920578</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3416,7 +3413,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1452528311159489</v>
+        <v>0.1540236898868075</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3424,7 +3421,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.1451205559836737</v>
+        <v>0.1540236898868075</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3432,7 +3429,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1449374058005235</v>
+        <v>0.1539117647748824</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3440,7 +3437,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1445914554545731</v>
+        <v>0.1537591396222573</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3448,7 +3445,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.144469355332473</v>
+        <v>0.1530977639608817</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3456,7 +3453,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.1442556801187977</v>
+        <v>0.1529451388082566</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3464,7 +3461,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.1437876296507472</v>
+        <v>0.1529044387675564</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3472,7 +3469,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.1437265795896974</v>
+        <v>0.1526195384826561</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3480,7 +3477,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.1436044794675972</v>
+        <v>0.1520497379128556</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3488,7 +3485,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.1432788791419968</v>
+        <v>0.1515807624438803</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3496,7 +3493,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1432381791012969</v>
+        <v>0.1512153870785047</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3504,7 +3501,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.1430753789384966</v>
+        <v>0.1506557615188793</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3512,7 +3509,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.1429736288367465</v>
+        <v>0.149556860419978</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3520,7 +3517,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.142566628429746</v>
+        <v>0.1489158347789523</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3528,7 +3525,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.1419052527683704</v>
+        <v>0.1487835596466773</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3536,7 +3533,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.1409793268424444</v>
+        <v>0.1484884843516023</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3544,7 +3541,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.140450226313344</v>
+        <v>0.1482748091379269</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3552,7 +3549,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1400941009572187</v>
+        <v>0.1481712090343268</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3560,7 +3557,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.1394225502856681</v>
+        <v>0.1476948335579511</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3568,7 +3565,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.1392699251330429</v>
+        <v>0.1465043573674756</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3576,7 +3573,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.1387713496344674</v>
+        <v>0.1462805071436248</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3584,7 +3581,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.1381404990036166</v>
+        <v>0.1459243817874998</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3592,7 +3589,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.1375808734439912</v>
+        <v>0.1458328066959245</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3600,7 +3597,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.1370314228945408</v>
+        <v>0.1458124566755743</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3608,7 +3605,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.1367058225689401</v>
+        <v>0.1456293064924241</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3616,7 +3613,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.1361563720194896</v>
+        <v>0.1449374058005235</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3624,7 +3621,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.1359426968058144</v>
+        <v>0.1444388303019479</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3632,7 +3629,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.1353016711647888</v>
+        <v>0.144367605230723</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3640,7 +3637,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1350167708798886</v>
+        <v>0.1431771290402468</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3648,7 +3645,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.134700420563538</v>
+        <v>0.1430448539079716</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3656,7 +3653,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.1340399699030876</v>
+        <v>0.1426887285518461</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3664,7 +3661,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1338059446690625</v>
+        <v>0.1424445283076459</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3672,7 +3669,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.1334091192722371</v>
+        <v>0.1422308530939707</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3680,7 +3677,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.1333073691704869</v>
+        <v>0.1421901530532708</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3688,7 +3685,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.1330733439364615</v>
+        <v>0.1421392780023958</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3696,7 +3693,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1330631689262867</v>
+        <v>0.1421291029922207</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3704,7 +3701,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1326052934684112</v>
+        <v>0.1416814025445201</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3712,7 +3709,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1305702914334097</v>
+        <v>0.14129475215787</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3720,7 +3717,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.130570291433409</v>
+        <v>0.1405418014049191</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3728,7 +3725,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1297461156092334</v>
+        <v>0.1402772511403687</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3736,7 +3733,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.129430690293808</v>
+        <v>0.1400330508961687</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3744,7 +3741,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1280857389488566</v>
+        <v>0.1399007757638935</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3752,7 +3749,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1279451388082564</v>
+        <v>0.1398499007130183</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3760,7 +3757,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1275483134114312</v>
+        <v>0.1397786756417931</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3768,7 +3765,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.1271209629840806</v>
+        <v>0.1397583256214432</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3776,7 +3773,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.1271107879739055</v>
+        <v>0.1391478250109426</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3784,7 +3781,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1269988628619807</v>
+        <v>0.1387306495937672</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3792,7 +3789,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1266122124753299</v>
+        <v>0.137560523423641</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3800,7 +3797,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1243126601757778</v>
+        <v>0.1367261725892901</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3808,7 +3805,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1237021595652772</v>
+        <v>0.1355662214293392</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3816,7 +3813,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1236799595430775</v>
+        <v>0.1353321961953138</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3824,7 +3821,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1224395333026509</v>
+        <v>0.1348641457272635</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3832,7 +3829,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.1218706577337754</v>
+        <v>0.1345080203711382</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3840,7 +3837,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.1216264574895753</v>
+        <v>0.134457145320263</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3848,7 +3845,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.1211991070622247</v>
+        <v>0.1342536451167629</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3856,7 +3853,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1195507554138731</v>
+        <v>0.1341417200048376</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3864,7 +3861,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1188792047423231</v>
+        <v>0.1340399699030876</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3872,7 +3869,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1181466040097217</v>
+        <v>0.1339382198013375</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3880,7 +3877,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1178413537044716</v>
+        <v>0.1331852690483868</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3888,7 +3885,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1168950777581954</v>
+        <v>0.1320660179291355</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3896,7 +3893,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1167221025852203</v>
+        <v>0.1302955661586844</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3904,7 +3901,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1166814025445202</v>
+        <v>0.1279756638387815</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3912,7 +3909,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1156435515066692</v>
+        <v>0.127487263350381</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3920,7 +3917,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1152772511403688</v>
+        <v>0.1273956882588061</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3928,7 +3925,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1140867749498926</v>
+        <v>0.1271209629840806</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3936,7 +3933,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1140562499193676</v>
+        <v>0.1261238119869297</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3944,7 +3941,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.113557674420792</v>
+        <v>0.1256964615595793</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3952,7 +3949,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1127131485762662</v>
+        <v>0.1253810362441539</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3960,7 +3957,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1121026479657656</v>
+        <v>0.1251673610304787</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3968,7 +3965,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.11129882216194</v>
+        <v>0.1249842108473285</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3976,7 +3973,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1100269458900636</v>
+        <v>0.1246382605013781</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3984,7 +3981,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1099658958290142</v>
+        <v>0.1244347602978779</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3992,7 +3989,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1086921695552872</v>
+        <v>0.1239463598094774</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4000,7 +3997,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1085617444248621</v>
+        <v>0.1232748091379268</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4008,7 +4005,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1085617444248619</v>
+        <v>0.1227057201072994</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4016,7 +4013,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.108490519353637</v>
+        <v>0.1218910077541255</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4024,7 +4021,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1083480692111869</v>
+        <v>0.1209549068180242</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4032,7 +4029,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1078291436922614</v>
+        <v>0.1208124566755742</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4040,7 +4037,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1058144916776091</v>
+        <v>0.1207208815839993</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4048,7 +4045,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1057229165860349</v>
+        <v>0.1204054562685739</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4056,7 +4053,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1047155905787083</v>
+        <v>0.1186044794675971</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4064,7 +4061,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1044306902938079</v>
+        <v>0.1179634538265715</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4072,7 +4069,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1041864900496079</v>
+        <v>0.1179431038062215</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4080,7 +4077,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1028230386861571</v>
+        <v>0.1173326031957209</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4088,7 +4085,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1021514880146055</v>
+        <v>0.1165898274529451</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4096,7 +4093,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1018157126788304</v>
+        <v>0.1143309751940929</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4104,7 +4101,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1015206373837549</v>
+        <v>0.1140867749498926</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4112,7 +4109,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1011645120276297</v>
+        <v>0.1139341497972675</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4120,7 +4117,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.09961791048102819</v>
+        <v>0.1138425747056921</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4128,7 +4125,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.09808148394460225</v>
+        <v>0.1137611746242921</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4136,7 +4133,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.09800008386320158</v>
+        <v>0.1134152242783417</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4144,7 +4141,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.09786780873092638</v>
+        <v>0.1133846992478169</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4152,7 +4149,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.09776605862917642</v>
+        <v>0.1133541742172919</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4160,7 +4157,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.09763378349690122</v>
+        <v>0.1133134741765918</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4168,7 +4165,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.09760325846637619</v>
+        <v>0.1124078982710162</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4176,7 +4173,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.09635173221484994</v>
+        <v>0.1117363475994653</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4184,7 +4181,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.09635173221484994</v>
+        <v>0.1113598722229898</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4192,7 +4189,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.09580228166539939</v>
+        <v>0.1105967464598643</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4200,7 +4197,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.09481345567657407</v>
+        <v>0.1100472959104137</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4208,7 +4205,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.09348237934549686</v>
+        <v>0.1087328695959879</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4216,7 +4213,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.09274977861289635</v>
+        <v>0.1084091192722374</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4224,7 +4221,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.09226137812449586</v>
+        <v>0.1076765185396362</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4232,7 +4229,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.09187472773784533</v>
+        <v>0.1075238933870111</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4240,7 +4237,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.09122352708664483</v>
+        <v>0.1071575930207107</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4248,7 +4245,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.09065372651684411</v>
+        <v>0.1059772918404094</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4256,7 +4253,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.09020602606914374</v>
+        <v>0.1055702914334091</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4264,7 +4261,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.08872972459284312</v>
+        <v>0.1052039910671085</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4272,7 +4269,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.088384699247817</v>
+        <v>0.1048071656702834</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4280,7 +4277,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.0880794489425667</v>
+        <v>0.104471390334508</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4288,7 +4285,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.08780472366784142</v>
+        <v>0.1037591396222575</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4296,7 +4293,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.08746894833206587</v>
+        <v>0.102639888503006</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4304,7 +4301,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.08737737324049077</v>
+        <v>0.1010118868750045</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4312,7 +4309,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.08722474808786562</v>
+        <v>0.1001775360406536</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4320,7 +4317,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.08666512252824021</v>
+        <v>0.09995368581680353</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4328,7 +4325,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.08632934719246488</v>
+        <v>0.09885478471790243</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4336,7 +4333,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.08547464633776403</v>
+        <v>0.0923733032364209</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4344,7 +4341,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.08435539521851299</v>
+        <v>0.0917933276564451</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4352,7 +4349,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.08316491902803658</v>
+        <v>0.09152877739189491</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4360,7 +4357,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.08194391780703558</v>
+        <v>0.08786577372889148</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4368,7 +4365,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.08093659179970936</v>
+        <v>0.0818828677459853</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4376,7 +4373,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.0786472145103323</v>
+        <v>0.08102816689128489</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4384,7 +4381,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.07677501263813036</v>
+        <v>0.08087554173865952</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4392,7 +4389,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.07440423526735307</v>
+        <v>0.07947139033450812</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4400,7 +4397,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.07135173221484981</v>
+        <v>0.07873729536964436</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4408,7 +4405,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.06955075541387301</v>
+        <v>0.07867773954085711</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4416,7 +4413,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.06881815468127228</v>
+        <v>0.07809776396088175</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4424,7 +4421,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.06569904109835822</v>
+        <v>0.07694613780925597</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4432,7 +4429,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.0653993512624691</v>
+        <v>0.07101595687907447</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4440,7 +4437,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.06228579814891577</v>
+        <v>0.07006968093279853</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4448,7 +4445,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.06221457307769129</v>
+        <v>0.06569904109835822</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4456,7 +4453,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.06074937161248917</v>
+        <v>0.0653993512624691</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4464,7 +4461,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.06014904601216364</v>
+        <v>0.06458535044846792</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4472,7 +4469,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.05953854540166326</v>
+        <v>0.06238754825066639</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4480,7 +4477,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.05703549289861076</v>
+        <v>0.05838876925188696</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4488,7 +4485,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.04531388117699886</v>
+        <v>0.05076768663080466</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4496,15 +4493,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.04096701721475049</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B376">
-        <v>0.01614952701264527</v>
+        <v>0.04546650632962401</v>
       </c>
     </row>
   </sheetData>
